--- a/mape_results.xlsx
+++ b/mape_results.xlsx
@@ -453,7 +453,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -461,12 +461,12 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>43.05</v>
+        <v>71.77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -474,12 +474,12 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.98</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -487,12 +487,12 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -500,12 +500,12 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5.97</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -513,12 +513,12 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.32</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -526,12 +526,12 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.77</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -539,7 +539,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2.45</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
@@ -590,19 +590,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>43.05</v>
+        <v>71.77</v>
       </c>
       <c r="D2" t="n">
-        <v>7.75</v>
+        <v>10.99</v>
       </c>
       <c r="E2" t="n">
-        <v>14.53</v>
+        <v>24.84</v>
       </c>
     </row>
   </sheetData>
